--- a/data/dummy_columns_book.xlsx
+++ b/data/dummy_columns_book.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,370 +3063,622 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>G6.01.A</t>
+          <t>G6.01-i</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>G6.01.A. Sleeping and resting</t>
+          <t>G6.01. Please use this link's format and upload it here:  https://drive.google.com/file/d/1ey-2_ihjlxAVM1dPnumW1s7BGU7lrrRj/view</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>G6.01.B</t>
+          <t>G6.01-ii</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>G6.01.B. Eating and drinking</t>
+          <t>G6.01. Please use this link's format and upload it here:  https://drive.google.com/file/d/1ey-2_ihjlxAVM1dPnumW1s7BGU7lrrRj/view_URL</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>G6.01.C</t>
+          <t>G6.01.A1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>G6.01.C. Personal care</t>
+          <t>G6.01.A1. Sleeping and resting (primary)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>G6.01.D</t>
+          <t>G6.01.A2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>G6.01.D. School (also homework)</t>
+          <t>G6.01.A2. Sleeping and resting (secondary)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>G6.01.E</t>
+          <t>G6.01.B1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>G6.01.E. Work as employed</t>
+          <t>G6.01.B1. Eating and drinking (primary)</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>G6.01.F</t>
+          <t>G6.01.B2</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>G6.01.F. Own business work</t>
+          <t>G6.01.B2. Eating and drinking (secondary)</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>G6.01.G</t>
+          <t>G6.01.C1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>G6.01.G. Farming/livestock/fishing</t>
+          <t>G6.01.C1. Personal care (primary)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>G6.01.H</t>
+          <t>G6.01.C2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>G6.01.H. Shopping/getting services (such as health services)</t>
+          <t>G6.01.C2. Personal care (secondary)</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>G6.01.I</t>
+          <t>G6.01.D1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>G6.01.I. Weaving/sewing/textile care</t>
+          <t>G6.01.D1. School (also homework) (primary)</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>G6.01.J</t>
+          <t>G6.01.D2</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>G6.01.J. Cooking</t>
+          <t>G6.01.D2 School (also homework) (secondary)</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>G6.01.K</t>
+          <t>G6.01.E1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>G6.01.K. Domestic work</t>
+          <t>G6.01.E1. Work as employed (primary)</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>G6.01.L</t>
+          <t>G6.01.E2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>G6.01.L. Care for children/adults/elderly</t>
+          <t>G6.01.E2. Work as employed (secondary)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>G6.01.M</t>
+          <t>G6.01.F1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>G6.01.M. Traveling/commuting</t>
+          <t>G6.01.F1. Own business work (primary)</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>G6.01.N</t>
+          <t>G6.01.F2</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>G6.01.N. Watching TV/listening to radio/reading</t>
+          <t>G6.01.F2. Own business work (secondary)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>G6.01.O</t>
+          <t>G6.01.G1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>G6.01.O. Exercising</t>
+          <t>G6.01.G1. Farming/livestock/fishing (primary)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>G6.01.P</t>
+          <t>G6.01.G2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>G6.01.P. Social activities and hobbies</t>
+          <t>G6.01.G2. Farming/livestock/fishing (secondary)</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>G6.01.Q</t>
+          <t>G6.01.H1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>G6.01.Q. Religious activities</t>
+          <t>G6.01.H1. Shopping/getting services (such as health services) (primary)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>G6.01.R</t>
+          <t>G6.01.H2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>G6.01.R. Other (If exists)</t>
+          <t>G6.01.H2. Shopping/getting services (such as health services) (secondary)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>G6.01.R.o</t>
+          <t>G6.01.I1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>G6.01.R.0 If other, please specify the name of activity</t>
+          <t>G6.01.I1. Weaving/sewing/textile care (primary)</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>G6.02</t>
+          <t>G6.01.I2</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>G6.02. How satisfied are you with your available time for leisure activities like visiting neighbors, watching TV, listening to the radio, seeing movies or doing sports?</t>
+          <t>G6.01.I2. Weaving/sewing/textile care (secondary)</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>OUTCOMEINTERVIEW</t>
+          <t>G6.01.J1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>G1.05. OUTCOME OF INTERVIEW</t>
+          <t>G6.01.J1. Cooking (primary)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>_id</t>
+          <t>G6.01.J2</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>_id</t>
+          <t>G6.01.J2. Cooking (secondary)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_uuid</t>
+          <t>G6.01.K1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>_uuid</t>
+          <t>G6.01.K1. Domestic work (primary)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>_submission_time</t>
+          <t>G6.01.K2</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>_submission_time</t>
+          <t>G6.01.K2. Domestic work (secondary)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>_validation_status</t>
+          <t>G6.01.L1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>_validation_status</t>
+          <t>G6.01.L1. Care for children/adults/elderly (primary)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_notes</t>
+          <t>G6.01.L2</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>_notes</t>
+          <t>G6.01.L2. Care for children/adults/elderly (secondary)</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>_status</t>
+          <t>G6.01.M1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>_status</t>
+          <t>G6.01.M1. Traveling/commuting (primary)</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>_submitted_by</t>
+          <t>G6.01.M2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>_submitted_by</t>
+          <t>G6.01.M2. Traveling/commuting (secondary)</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>__version__</t>
+          <t>G6.01.N1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>__version__</t>
+          <t>G6.01.N1. Watching TV/listening to radio/reading (primary)</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>_tags</t>
+          <t>G6.01.N2</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>_tags</t>
+          <t>G6.01.N2. Watching TV/listening to radio/reading (secondary)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>G6.01.O1</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>G6.01.O1. Exercising (primary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>G6.01.O2</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>G6.01.O2. Exercising (secondary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>G6.01.P1</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>G6.01.P1. Social activities and hobbies (primary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>G6.01.P2</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>G6.01.P2. Social activities and hobbies (secondary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>G6.01.Q1</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>G6.01.Q1. Religious activities (primary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>G6.01.Q2</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>G6.01.Q2. Religious activities (secondary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>G6.01.R1</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>G6.01.R1. Other (If exists) (primary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>G6.01.R1.0</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>G6.01.R1.0 If other, please specify the name of activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>G6.01.R2</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>G6.01.R2. Other (If exists) (secondary)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>G6.01.R2.0</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>G6.01.R2.0 If other, please specify the name of activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>G6.02</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>G6.02. How satisfied are you with your available time for leisure activities like visiting neighbors, watching TV, listening to the radio, seeing movies or doing sports?</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>OUTCOMEINTERVIEW</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>G1.05. OUTCOME OF INTERVIEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>_uuid</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>_uuid</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>_submission_time</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>_submission_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>_validation_status</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>_validation_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>_notes</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>_notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>_status</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>_submitted_by</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>_submitted_by</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>__version__</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>__version__</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>_tags</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>_tags</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
           <t>_index</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>_index</t>
         </is>
